--- a/cellar defender_reds.xlsx
+++ b/cellar defender_reds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ligeaalexander/Desktop/Developer/Project 1-CellarDefenders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ligeaalexander/Desktop/Developer/Project 1-CellarDefenders/Project-1-Cellar-Defenders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD591805-A4EC-9642-B970-C1CB55459851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA82A8A-F146-8E45-B9D2-988C53A84919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1D4F95F6-1AE0-F24E-98B4-EEBE9BB2EBD1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="133">
   <si>
     <t xml:space="preserve">La Rioja Alta </t>
   </si>
@@ -120,6 +120,321 @@
   </si>
   <si>
     <t>La Croix BoissÈe Chinon Rouge</t>
+  </si>
+  <si>
+    <t>Clos de la Roilette</t>
+  </si>
+  <si>
+    <t>Fleurie</t>
+  </si>
+  <si>
+    <t>Domaine Guion</t>
+  </si>
+  <si>
+    <t>Cuv? Domaine Bourgueil</t>
+  </si>
+  <si>
+    <t>Ch?eau Cambon La Pelouse</t>
+  </si>
+  <si>
+    <t>Haut-M?oc</t>
+  </si>
+  <si>
+    <t>Giovanni Canonica</t>
+  </si>
+  <si>
+    <t>Aldo Conterno</t>
+  </si>
+  <si>
+    <t>Il Favot Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Cascina Corte</t>
+  </si>
+  <si>
+    <t>Mascarello Giuseppe e Figlio</t>
+  </si>
+  <si>
+    <t>Fontanafredda</t>
+  </si>
+  <si>
+    <t>G.D. Vajra</t>
+  </si>
+  <si>
+    <t>La Spinetta</t>
+  </si>
+  <si>
+    <t>Pecchenino</t>
+  </si>
+  <si>
+    <t>Mirafiore</t>
+  </si>
+  <si>
+    <t>E. Pira &amp; Figli</t>
+  </si>
+  <si>
+    <t>Monchiero Carbone</t>
+  </si>
+  <si>
+    <t>Cavallotto</t>
+  </si>
+  <si>
+    <t>Batasiolo</t>
+  </si>
+  <si>
+    <t>Cascina delle Rose</t>
+  </si>
+  <si>
+    <t>Voerzio Martini</t>
+  </si>
+  <si>
+    <t>Voerzio Alberto</t>
+  </si>
+  <si>
+    <t>Elio Sandri</t>
+  </si>
+  <si>
+    <t>Luigi Oddero</t>
+  </si>
+  <si>
+    <t>Giulia Negri</t>
+  </si>
+  <si>
+    <t>Raineri</t>
+  </si>
+  <si>
+    <t>Ruggeri Corsini</t>
+  </si>
+  <si>
+    <t>Comm. G.B. Burlotto</t>
+  </si>
+  <si>
+    <t>Sottimano</t>
+  </si>
+  <si>
+    <t>Cascina Massara - Burlotto Gian Carlo</t>
+  </si>
+  <si>
+    <t>Michele Chiarlo</t>
+  </si>
+  <si>
+    <t>Fratelli Alessandria</t>
+  </si>
+  <si>
+    <t>Mauro Veglio</t>
+  </si>
+  <si>
+    <t>Marchesi di Barolo</t>
+  </si>
+  <si>
+    <t>Paolo Scavino</t>
+  </si>
+  <si>
+    <t>Enzo Boglietti</t>
+  </si>
+  <si>
+    <t>Brezza</t>
+  </si>
+  <si>
+    <t>Eugenio Bocchino</t>
+  </si>
+  <si>
+    <t>Trediberri</t>
+  </si>
+  <si>
+    <t>Borgogno</t>
+  </si>
+  <si>
+    <t>Col dei Venti</t>
+  </si>
+  <si>
+    <t>Scarzello</t>
+  </si>
+  <si>
+    <t>Elio Altare</t>
+  </si>
+  <si>
+    <t>Cigliuti</t>
+  </si>
+  <si>
+    <t>Barale Fratelli</t>
+  </si>
+  <si>
+    <t>Erbaluna</t>
+  </si>
+  <si>
+    <t>Rizzi</t>
+  </si>
+  <si>
+    <t>M.A. Monticelli</t>
+  </si>
+  <si>
+    <t>Fenocchio Renato</t>
+  </si>
+  <si>
+    <t>Luigi Voghera</t>
+  </si>
+  <si>
+    <t>Enrico Serafino</t>
+  </si>
+  <si>
+    <t>Giovanni Rosso</t>
+  </si>
+  <si>
+    <t>Rocche Costamagna</t>
+  </si>
+  <si>
+    <t>Pasquale Pelissero</t>
+  </si>
+  <si>
+    <t>Cascina Chicco</t>
+  </si>
+  <si>
+    <t>Manzone</t>
+  </si>
+  <si>
+    <t>Seghesio</t>
+  </si>
+  <si>
+    <t>De Forville</t>
+  </si>
+  <si>
+    <t>Chiesa Carlo</t>
+  </si>
+  <si>
+    <t>Musso</t>
+  </si>
+  <si>
+    <t>Silvio Grasso</t>
+  </si>
+  <si>
+    <t>Bricco Maiolica</t>
+  </si>
+  <si>
+    <t>Cantina del Pino</t>
+  </si>
+  <si>
+    <t>Negro Angelo</t>
+  </si>
+  <si>
+    <t>La Ca' N?va</t>
+  </si>
+  <si>
+    <t>Fratelli Revello</t>
+  </si>
+  <si>
+    <t>PAITIN</t>
+  </si>
+  <si>
+    <t>Guidobono</t>
+  </si>
+  <si>
+    <t>Piazzo</t>
+  </si>
+  <si>
+    <t>Collina Serragrilli</t>
+  </si>
+  <si>
+    <t>Bruno Rocca</t>
+  </si>
+  <si>
+    <t>Mauro Molino</t>
+  </si>
+  <si>
+    <t>Nino Costa</t>
+  </si>
+  <si>
+    <t>Ca? del Baio</t>
+  </si>
+  <si>
+    <t>Marcarini</t>
+  </si>
+  <si>
+    <t>Tintero Elvio</t>
+  </si>
+  <si>
+    <t>Nada Giuseppe</t>
+  </si>
+  <si>
+    <t>Ebbio Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Bricco Ravera Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Sire Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Ciabot della Luna Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Pian delle Mole Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Snart Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Il Principe Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Prinsiot Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Langhe Nebbiolo Angelo</t>
+  </si>
+  <si>
+    <t>Sbirolo Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Roccabella Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Lampio Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Spetacol Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Picotener Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Roccardo Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Pasqualin Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Il Crutin Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Angelin Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Botti Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Bail? Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Fral? Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Bric del Baio Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Lasarin Langhe Nebbiolo</t>
+  </si>
+  <si>
+    <t>Verduno Pelaverga</t>
+  </si>
+  <si>
+    <t>Basadone Pelaverga</t>
+  </si>
+  <si>
+    <t>Speziale Verduno Pelaverga</t>
+  </si>
+  <si>
+    <t>Castello di Verduno</t>
   </si>
 </sst>
 </file>
@@ -471,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F0A24F-4A52-1849-B54B-84920D3591D4}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,6 +1052,918 @@
         <v>27</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>96</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>96</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>98</v>
+      </c>
+      <c r="B129" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>99</v>
+      </c>
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>100</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>103</v>
+      </c>
+      <c r="B136" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>104</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>105</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>56</v>
+      </c>
+      <c r="B139" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>132</v>
+      </c>
+      <c r="B140" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>58</v>
+      </c>
+      <c r="B144" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>60</v>
+      </c>
+      <c r="B146" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
